--- a/Ethanol/Ethanol_AVE_MASS_FRAC.xlsx
+++ b/Ethanol/Ethanol_AVE_MASS_FRAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool_Fires\Ethanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{6B8FDB0F-A8A9-4D64-B3FA-81878CAE2B3F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{DF717784-70D6-44B7-87AB-033C1B0EA00D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="11055" xr2:uid="{2C1E920C-970B-4109-9775-1D5AF6DAF90F}"/>
+    <workbookView xWindow="25200" yWindow="-11550" windowWidth="16200" windowHeight="10980" xr2:uid="{2C1E920C-970B-4109-9775-1D5AF6DAF90F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,19 +610,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6.5792579971812995E-2</v>
+        <v>7.7650977849269817E-2</v>
       </c>
       <c r="C2">
-        <v>2.013374763827775E-3</v>
+        <v>2.295196542455219E-3</v>
       </c>
       <c r="D2">
-        <v>9.6448517728695574E-2</v>
+        <v>0.10744183029275578</v>
       </c>
       <c r="E2">
-        <v>6.3148219054188839E-3</v>
+        <v>7.4888766449407547E-3</v>
       </c>
       <c r="F2">
-        <v>1.8614795438172856E-2</v>
+        <v>2.2146447326846425E-2</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -631,34 +631,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.40501964204609781</v>
+        <v>0.46538946313854235</v>
       </c>
       <c r="J2">
-        <v>0.32353941022079152</v>
+        <v>0.2343748911147219</v>
       </c>
       <c r="K2">
-        <v>5.2693689704127224E-3</v>
+        <v>6.178127487171072E-3</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.3715232800922883E-2</v>
+        <v>5.2032017840304118E-2</v>
       </c>
       <c r="N2">
-        <v>2.2636909633802143E-2</v>
+        <v>1.6932368035751037E-2</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>8.7712178416543682E-4</v>
+        <v>6.2143403694252177E-4</v>
       </c>
       <c r="Q2">
-        <v>6.8164174191738633E-4</v>
+        <v>4.8065731868859288E-4</v>
       </c>
       <c r="R2">
-        <v>9.0765829939618049E-3</v>
+        <v>6.9677123716103276E-3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -666,19 +666,19 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>7.8565549653085029E-2</v>
+        <v>8.8263440384111477E-2</v>
       </c>
       <c r="C3">
-        <v>2.56641876340611E-3</v>
+        <v>2.8179217619136339E-3</v>
       </c>
       <c r="D3">
-        <v>0.1051613528302566</v>
+        <v>0.12255206607055497</v>
       </c>
       <c r="E3">
-        <v>7.9584568438273769E-3</v>
+        <v>8.9394414153531696E-3</v>
       </c>
       <c r="F3">
-        <v>2.4089312714349616E-2</v>
+        <v>2.6900451809774916E-2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -687,34 +687,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.51504923913437728</v>
+        <v>0.5598731259137949</v>
       </c>
       <c r="J3">
-        <v>0.1729404147583711</v>
+        <v>9.6301838351008376E-2</v>
       </c>
       <c r="K3">
-        <v>4.8557930702327569E-3</v>
+        <v>9.2042520986496453E-3</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5.3291261319955194E-2</v>
+        <v>5.9865686843953922E-2</v>
       </c>
       <c r="N3">
-        <v>2.339271862568203E-2</v>
+        <v>1.6670157757145233E-2</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.0890155678767797E-3</v>
+        <v>7.1433700159036532E-4</v>
       </c>
       <c r="Q3">
-        <v>6.5174915479839E-4</v>
+        <v>4.2827958251172407E-4</v>
       </c>
       <c r="R3">
-        <v>1.0388717563781761E-2</v>
+        <v>7.4690010096376278E-3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -722,19 +722,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8.9018543910947337E-2</v>
+        <v>9.5287438272993782E-2</v>
       </c>
       <c r="C4">
-        <v>2.4209898821857989E-3</v>
+        <v>2.5434322278413018E-3</v>
       </c>
       <c r="D4">
-        <v>0.11412140129938592</v>
+        <v>0.1154708949988751</v>
       </c>
       <c r="E4">
-        <v>9.1463051069259893E-3</v>
+        <v>9.7726810599756964E-3</v>
       </c>
       <c r="F4">
-        <v>2.9724378633389531E-2</v>
+        <v>3.1601634040896359E-2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -743,34 +743,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.58952662607887207</v>
+        <v>0.6095917336643093</v>
       </c>
       <c r="J4">
-        <v>6.6875729028400346E-2</v>
+        <v>4.363583023651358E-2</v>
       </c>
       <c r="K4">
-        <v>8.5737100279474864E-3</v>
+        <v>9.0725149215348019E-3</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5.604358971798664E-2</v>
+        <v>5.9615535336234364E-2</v>
       </c>
       <c r="N4">
-        <v>2.2917891204865211E-2</v>
+        <v>1.553961581292968E-2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.0509279102201628E-3</v>
+        <v>6.7114124664696196E-4</v>
       </c>
       <c r="Q4">
-        <v>6.0205714159048058E-4</v>
+        <v>3.7620800673437602E-4</v>
       </c>
       <c r="R4">
-        <v>9.97785005728293E-3</v>
+        <v>6.8213401745146097E-3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -778,19 +778,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>8.7675060136578317E-2</v>
+        <v>9.1756517114560787E-2</v>
       </c>
       <c r="C5">
-        <v>1.7971064240566116E-3</v>
+        <v>1.7365967378778189E-3</v>
       </c>
       <c r="D5">
-        <v>0.11319319523265306</v>
+        <v>0.10684336666692139</v>
       </c>
       <c r="E5">
-        <v>1.018478918689374E-2</v>
+        <v>1.0713486432351168E-2</v>
       </c>
       <c r="F5">
-        <v>4.8671307665157905E-2</v>
+        <v>5.1182742407965803E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -799,34 +799,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.65106986901965147</v>
+        <v>0.66058954418115745</v>
       </c>
       <c r="J5">
-        <v>1.6460414377057732E-2</v>
+        <v>1.1108883206032259E-2</v>
       </c>
       <c r="K5">
-        <v>6.0347462708542328E-3</v>
+        <v>6.2023408613692379E-3</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.3391383317096112E-2</v>
+        <v>4.5212093447173404E-2</v>
       </c>
       <c r="N5">
-        <v>1.3715322221282564E-2</v>
+        <v>9.4433982378554285E-3</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>7.7144688038758896E-4</v>
+        <v>5.3702381212209925E-4</v>
       </c>
       <c r="Q5">
-        <v>3.7388654840026051E-4</v>
+        <v>2.3844864651348271E-4</v>
       </c>
       <c r="R5">
-        <v>6.6614727199304433E-3</v>
+        <v>4.4355582480997083E-3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -834,19 +834,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>7.7335729069117315E-2</v>
+        <v>7.9713082848292233E-2</v>
       </c>
       <c r="C6">
-        <v>1.4046133051762223E-3</v>
+        <v>1.4330728065518248E-3</v>
       </c>
       <c r="D6">
-        <v>8.5617680444270261E-2</v>
+        <v>8.4488738168766647E-2</v>
       </c>
       <c r="E6">
-        <v>1.0794401882608743E-2</v>
+        <v>1.1199782240325801E-2</v>
       </c>
       <c r="F6">
-        <v>6.9648838918731887E-2</v>
+        <v>7.1896651146980878E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -855,34 +855,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.69255906353199637</v>
+        <v>0.69539153922957353</v>
       </c>
       <c r="J6">
-        <v>9.1121498242565536E-3</v>
+        <v>5.7761367918317376E-3</v>
       </c>
       <c r="K6">
-        <v>4.4788708782449553E-3</v>
+        <v>4.6019546562011794E-3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.4957369716318985E-2</v>
+        <v>3.6160433844838344E-2</v>
       </c>
       <c r="N6">
-        <v>8.7991344186918972E-3</v>
+        <v>5.8589985020059765E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>3.9361056870677549E-4</v>
+        <v>2.4419956388441769E-4</v>
       </c>
       <c r="Q6">
-        <v>2.9228978679603478E-4</v>
+        <v>1.7734380374179957E-4</v>
       </c>
       <c r="R6">
-        <v>4.6062476550840286E-3</v>
+        <v>3.0580663970055195E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -890,19 +890,19 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>5.9802997450709668E-2</v>
+        <v>6.7253411155698606E-2</v>
       </c>
       <c r="C7">
-        <v>4.3158893194731462E-4</v>
+        <v>5.7863736106888563E-4</v>
       </c>
       <c r="D7">
-        <v>4.2305712162277548E-2</v>
+        <v>5.809569063464963E-2</v>
       </c>
       <c r="E7">
-        <v>1.1601114572604824E-2</v>
+        <v>1.170222505602906E-2</v>
       </c>
       <c r="F7">
-        <v>0.121860531521763</v>
+        <v>0.11096195447465579</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -911,22 +911,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.74242420237115636</v>
+        <v>0.72739077718590006</v>
       </c>
       <c r="J7">
-        <v>1.3591194598732289E-3</v>
+        <v>1.1239602370112481E-3</v>
       </c>
       <c r="K7">
-        <v>1.514529096573645E-3</v>
+        <v>1.9153446624747194E-3</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.3892346610798285E-2</v>
+        <v>1.7193818265629542E-2</v>
       </c>
       <c r="N7">
-        <v>3.2402580904230677E-3</v>
+        <v>2.5360880986783027E-3</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.2978689769938112E-4</v>
+        <v>8.5107857982037993E-5</v>
       </c>
       <c r="R7">
-        <v>1.437812834173831E-3</v>
+        <v>1.1629850102219822E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -946,19 +946,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>5.3873418336153098E-2</v>
+        <v>5.3929007797550818E-2</v>
       </c>
       <c r="C8">
-        <v>1.7153711008079556E-4</v>
+        <v>1.7033429176696452E-4</v>
       </c>
       <c r="D8">
-        <v>2.8144451636188669E-2</v>
+        <v>4.1518131044865604E-2</v>
       </c>
       <c r="E8">
-        <v>1.1743089432000205E-2</v>
+        <v>1.18935167730075E-2</v>
       </c>
       <c r="F8">
-        <v>0.14177798143363077</v>
+        <v>0.14280719567999819</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -967,22 +967,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.75605059497400606</v>
+        <v>0.74197615175252507</v>
       </c>
       <c r="J8">
-        <v>2.1351322269226402E-4</v>
+        <v>1.3150727049635277E-4</v>
       </c>
       <c r="K8">
-        <v>5.0660183595045444E-4</v>
+        <v>5.1464200237591191E-4</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.8619460400354245E-3</v>
+        <v>5.9870608844036291E-3</v>
       </c>
       <c r="N8">
-        <v>1.2464352963347518E-3</v>
+        <v>7.9529589593393827E-4</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -991,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.4902274340089092E-5</v>
+        <v>1.4086821208677452E-5</v>
       </c>
       <c r="R8">
-        <v>3.9552840858735229E-4</v>
+        <v>2.6306978586730444E-4</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1002,19 +1002,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>3.2780077372710534E-2</v>
+        <v>3.3242976412738948E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.9491489352083363E-2</v>
+        <v>2.1168619157900498E-2</v>
       </c>
       <c r="E9">
-        <v>1.1780388888469509E-2</v>
+        <v>1.1955650000754879E-2</v>
       </c>
       <c r="F9">
-        <v>0.1762847415116568</v>
+        <v>0.17964657220773519</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.75885459336151051</v>
+        <v>0.75351287490926955</v>
       </c>
       <c r="J9">
-        <v>1.4504026146111945E-5</v>
+        <v>9.0038145856967015E-6</v>
       </c>
       <c r="K9">
-        <v>2.15425225956803E-5</v>
+        <v>2.1709072341432119E-5</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.1624083124680847E-4</v>
+        <v>3.4008612768205479E-4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1.564221335805333E-4</v>
+        <v>1.0250829699170914E-4</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1058,19 +1058,19 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>1.9683246372609625E-2</v>
+        <v>2.0073044886322281E-2</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.5897515754171119E-2</v>
+        <v>1.2944034505505192E-2</v>
       </c>
       <c r="E10">
-        <v>1.1767550138534045E-2</v>
+        <v>1.2141731555582434E-2</v>
       </c>
       <c r="F10">
-        <v>0.19521459097087546</v>
+        <v>0.20270824766078444</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.75743709676380966</v>
+        <v>0.75210310613450371</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.0209353094297727E-5</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.9625904207698935E-5</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1202,19 +1202,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5.3279650586735804E-3</v>
+        <v>6.0854384124294121E-3</v>
       </c>
       <c r="C2">
-        <v>2.5721821899577331E-4</v>
+        <v>2.03061726349037E-4</v>
       </c>
       <c r="D2">
-        <v>2.1125747187649098E-2</v>
+        <v>2.2023274547215602E-2</v>
       </c>
       <c r="E2">
-        <v>8.077642260364222E-4</v>
+        <v>1.0255830932353865E-3</v>
       </c>
       <c r="F2">
-        <v>7.419862562891605E-3</v>
+        <v>8.3302052743043069E-3</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.8737127291045054E-2</v>
+        <v>5.2654665694891058E-2</v>
       </c>
       <c r="J2">
-        <v>0.15913123121651016</v>
+        <v>0.11228507448389466</v>
       </c>
       <c r="K2">
-        <v>4.896256057201581E-4</v>
+        <v>5.6339607663276337E-4</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.744984732390363E-3</v>
+        <v>4.7873504517861772E-3</v>
       </c>
       <c r="N2">
-        <v>4.1692576612598377E-3</v>
+        <v>3.2283518853831496E-3</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>5.1836831740199472E-4</v>
+        <v>2.8891284009774262E-4</v>
       </c>
       <c r="Q2">
-        <v>6.0743064495573661E-5</v>
+        <v>4.6898734430133737E-5</v>
       </c>
       <c r="R2">
-        <v>1.3135870749869005E-3</v>
+        <v>1.0714781846085442E-3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1258,19 +1258,19 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>6.5680726194916042E-3</v>
+        <v>8.8524209316939162E-3</v>
       </c>
       <c r="C3">
-        <v>5.1593078808527743E-4</v>
+        <v>5.5416065245914091E-4</v>
       </c>
       <c r="D3">
-        <v>2.2209522263142361E-2</v>
+        <v>3.3987479616525512E-2</v>
       </c>
       <c r="E3">
-        <v>7.0977606609511123E-4</v>
+        <v>9.5609334241487009E-4</v>
       </c>
       <c r="F3">
-        <v>1.9309830246733876E-2</v>
+        <v>2.1465242817737092E-2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1279,34 +1279,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.6460694256997739E-2</v>
+        <v>4.8811032714784708E-2</v>
       </c>
       <c r="J3">
-        <v>4.8450197909765659E-2</v>
+        <v>3.9008751422410136E-2</v>
       </c>
       <c r="K3">
-        <v>3.7268255242377661E-3</v>
+        <v>2.6170880608307068E-3</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.1319818973560408E-2</v>
+        <v>1.2668045467365984E-2</v>
       </c>
       <c r="N3">
-        <v>6.2655675414268431E-3</v>
+        <v>4.4865863742205182E-3</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>5.0348799086123979E-4</v>
+        <v>1.5683845986274485E-4</v>
       </c>
       <c r="Q3">
-        <v>1.9710557211560529E-4</v>
+        <v>1.3154169593135483E-4</v>
       </c>
       <c r="R3">
-        <v>2.7791334309847883E-3</v>
+        <v>2.0393836793288068E-3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1314,19 +1314,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.0502643653422703E-3</v>
+        <v>4.4079630298698973E-3</v>
       </c>
       <c r="C4">
-        <v>1.1583515874371481E-4</v>
+        <v>1.5391509782393262E-4</v>
       </c>
       <c r="D4">
-        <v>2.7521997616423346E-2</v>
+        <v>3.6014999045295953E-2</v>
       </c>
       <c r="E4">
-        <v>3.6297234536837147E-4</v>
+        <v>7.8327552523534735E-4</v>
       </c>
       <c r="F4">
-        <v>1.0959991677378014E-3</v>
+        <v>1.6302779230136398E-3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1335,34 +1335,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.8544140695884666E-2</v>
+        <v>2.7084795877457882E-2</v>
       </c>
       <c r="J4">
-        <v>1.5294295773448974E-2</v>
+        <v>8.497893378592164E-3</v>
       </c>
       <c r="K4">
-        <v>7.7995772942866413E-4</v>
+        <v>9.2272181881775952E-4</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.9569529827014103E-3</v>
+        <v>2.676127108047177E-3</v>
       </c>
       <c r="N4">
-        <v>1.8746417681174503E-3</v>
+        <v>1.5175312650972436E-3</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>5.3188108860449917E-4</v>
+        <v>1.8995409501206833E-4</v>
       </c>
       <c r="Q4">
-        <v>4.0540685883036505E-5</v>
+        <v>2.9627595365873751E-5</v>
       </c>
       <c r="R4">
-        <v>5.5941810019434013E-4</v>
+        <v>4.6730123102439719E-4</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1370,19 +1370,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.9597771273653668E-3</v>
+        <v>4.5668406785444324E-3</v>
       </c>
       <c r="C5">
-        <v>3.3587529646605967E-4</v>
+        <v>4.436437291757716E-4</v>
       </c>
       <c r="D5">
-        <v>2.4063927051639632E-2</v>
+        <v>2.0798768914459604E-2</v>
       </c>
       <c r="E5">
-        <v>6.2432522735179506E-4</v>
+        <v>1.0523905286749257E-3</v>
       </c>
       <c r="F5">
-        <v>1.5203081736380497E-2</v>
+        <v>1.6443486514894828E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1391,34 +1391,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.5078757922475015E-2</v>
+        <v>4.8538962792641076E-2</v>
       </c>
       <c r="J5">
-        <v>4.2574406783020763E-3</v>
+        <v>2.5520288486608131E-3</v>
       </c>
       <c r="K5">
-        <v>1.0065482461825478E-3</v>
+        <v>1.088596957443091E-3</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>7.6816941363622498E-3</v>
+        <v>7.7556596722893993E-3</v>
       </c>
       <c r="N5">
-        <v>1.2285766938723332E-3</v>
+        <v>6.8678432351284375E-4</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>3.6447159985258416E-4</v>
+        <v>1.4845374855898826E-4</v>
       </c>
       <c r="Q5">
-        <v>3.9204725959481073E-5</v>
+        <v>4.0665997843380784E-5</v>
       </c>
       <c r="R5">
-        <v>1.3894589360545378E-3</v>
+        <v>8.4807760215003885E-4</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1426,19 +1426,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.2053513198548535E-2</v>
+        <v>1.2567529737204958E-2</v>
       </c>
       <c r="C6">
-        <v>1.1140162989092782E-3</v>
+        <v>1.1380323161611884E-3</v>
       </c>
       <c r="D6">
-        <v>1.6350920617768539E-2</v>
+        <v>1.8735108498394423E-2</v>
       </c>
       <c r="E6">
-        <v>7.1756095300216547E-4</v>
+        <v>1.0471437536660785E-3</v>
       </c>
       <c r="F6">
-        <v>4.6972029034275935E-2</v>
+        <v>4.8488105066337661E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1447,34 +1447,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.5662370284373408E-2</v>
+        <v>4.7632013639611233E-2</v>
       </c>
       <c r="J6">
-        <v>1.158893077970089E-2</v>
+        <v>7.3085470611360401E-3</v>
       </c>
       <c r="K6">
-        <v>3.4287830614916082E-3</v>
+        <v>3.5258331228958874E-3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.3450312853217886E-2</v>
+        <v>2.4281521895849967E-2</v>
       </c>
       <c r="N6">
-        <v>4.8320477754287853E-3</v>
+        <v>3.2795987926104906E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>2.9437741816124371E-4</v>
+        <v>1.4932676024025438E-4</v>
       </c>
       <c r="Q6">
-        <v>5.5270373935960475E-5</v>
+        <v>3.3800210097645087E-5</v>
       </c>
       <c r="R6">
-        <v>3.7408814918203598E-3</v>
+        <v>2.4862407313451353E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1482,19 +1482,19 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>1.2918170768511674E-2</v>
+        <v>1.6313339045567433E-3</v>
       </c>
       <c r="C7">
-        <v>2.6374773960533552E-4</v>
+        <v>2.765393325942855E-5</v>
       </c>
       <c r="D7">
-        <v>3.9770700456095445E-2</v>
+        <v>1.102171382077682E-2</v>
       </c>
       <c r="E7">
-        <v>4.5345990792454297E-4</v>
+        <v>8.2979112546681161E-4</v>
       </c>
       <c r="F7">
-        <v>2.4593720368580704E-2</v>
+        <v>2.3895743913142009E-3</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1503,22 +1503,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.3052411584109488E-2</v>
+        <v>1.5551085334641232E-2</v>
       </c>
       <c r="J7">
-        <v>9.2316373074333678E-4</v>
+        <v>1.002582755334319E-4</v>
       </c>
       <c r="K7">
-        <v>7.7927528532857496E-4</v>
+        <v>1.0104146687145279E-4</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>6.1434921745720517E-3</v>
+        <v>4.0929596616772824E-4</v>
       </c>
       <c r="N7">
-        <v>1.3359575864120127E-3</v>
+        <v>3.9322038916370988E-5</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.7298403389224186E-5</v>
+        <v>3.7503707853534392E-6</v>
       </c>
       <c r="R7">
-        <v>7.0309754758112744E-4</v>
+        <v>6.3430885460600777E-5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1538,19 +1538,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>1.5834074975019645E-3</v>
+        <v>2.2191814466303371E-3</v>
       </c>
       <c r="C8">
-        <v>4.4213150172844332E-5</v>
+        <v>4.2330919110245834E-5</v>
       </c>
       <c r="D8">
-        <v>6.6035539325961252E-3</v>
+        <v>1.2527150507768722E-2</v>
       </c>
       <c r="E8">
-        <v>4.1560326997799575E-4</v>
+        <v>9.5366824485095566E-4</v>
       </c>
       <c r="F8">
-        <v>8.005608566397638E-3</v>
+        <v>1.0797938089490413E-2</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1559,22 +1559,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.9229891856065245E-2</v>
+        <v>3.3998121747070432E-2</v>
       </c>
       <c r="J8">
-        <v>1.6442155263441955E-4</v>
+        <v>9.8677994649125857E-5</v>
       </c>
       <c r="K8">
-        <v>1.6515037752624261E-4</v>
+        <v>1.6096998566692458E-4</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.5559987712367581E-3</v>
+        <v>1.5135767352856199E-3</v>
       </c>
       <c r="N8">
-        <v>4.1837977617685697E-4</v>
+        <v>2.5997814127629693E-4</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.9818318495340176E-5</v>
+        <v>2.8190353332233043E-5</v>
       </c>
       <c r="R8">
-        <v>1.3543867502493437E-4</v>
+        <v>9.3734850346650212E-5</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1594,19 +1594,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>2.8495039071843994E-3</v>
+        <v>3.3655534399250511E-3</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.7178059333668437E-3</v>
+        <v>5.4989565239554053E-3</v>
       </c>
       <c r="E9">
-        <v>7.4439557496279842E-4</v>
+        <v>8.845308428185282E-4</v>
       </c>
       <c r="F9">
-        <v>9.3949780674024465E-3</v>
+        <v>8.9765025241268434E-3</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.8773205622090204E-2</v>
+        <v>2.4884511144939093E-2</v>
       </c>
       <c r="J9">
-        <v>1.0778868188672789E-5</v>
+        <v>6.5138348049137553E-6</v>
       </c>
       <c r="K9">
-        <v>5.0396520750000577E-6</v>
+        <v>4.8315652616327985E-6</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.1551895052804621E-5</v>
+        <v>6.8026281944652588E-4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>3.1304765620806418E-4</v>
+        <v>2.0516726322287302E-4</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1650,19 +1650,19 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>1.8188872300457179E-3</v>
+        <v>1.8715828853326263E-3</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.01793907618243E-3</v>
+        <v>2.8302195079080296E-3</v>
       </c>
       <c r="E10">
-        <v>5.1329555784766832E-4</v>
+        <v>9.8300279107332422E-4</v>
       </c>
       <c r="F10">
-        <v>4.0262305150694988E-3</v>
+        <v>9.5255871993857547E-3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1671,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.9488515560554014E-2</v>
+        <v>2.35997853645207E-2</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.0433009624408887E-5</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.9257565520056565E-5</v>
       </c>
       <c r="N10">
         <v>0</v>

--- a/Ethanol/Ethanol_AVE_MASS_FRAC.xlsx
+++ b/Ethanol/Ethanol_AVE_MASS_FRAC.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool_Fires\Ethanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{DF717784-70D6-44B7-87AB-033C1B0EA00D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{AB87FE82-619D-4E93-8437-B8150F813767}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="-11550" windowWidth="16200" windowHeight="10980" xr2:uid="{2C1E920C-970B-4109-9775-1D5AF6DAF90F}"/>
+    <workbookView xWindow="25200" yWindow="-11580" windowWidth="16200" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Mass_Fractions" sheetId="4" r:id="rId4"/>
     <sheet name="Uncertainties" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="37">
   <si>
     <t>Position_cm</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>u_ave_Y_Ethylene_2</t>
+  </si>
+  <si>
+    <t>ave_Y_Toluene</t>
+  </si>
+  <si>
+    <t>u_ave_Y_Toluene</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -171,12 +177,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56F79A7-1ADF-4C12-811C-60A2117D69BA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -527,102 +589,110 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C93049-6E3B-4C21-A68E-E5E3CA1CBE45}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="15.85546875" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="16.28515625" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="17.140625" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="17.140625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="14.5703125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7.7650977849269817E-2</v>
+        <v>0.078195473735968732</v>
       </c>
       <c r="C2">
-        <v>2.295196542455219E-3</v>
+        <v>0.0023038470348390578</v>
       </c>
       <c r="D2">
-        <v>0.10744183029275578</v>
+        <v>0.10784677371152686</v>
       </c>
       <c r="E2">
-        <v>7.4888766449407547E-3</v>
+        <v>0.007517101883687107</v>
       </c>
       <c r="F2">
-        <v>2.2146447326846425E-2</v>
+        <v>0.022229916289258158</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -631,54 +701,57 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.46538946313854235</v>
+        <v>0.4656121189957742</v>
       </c>
       <c r="J2">
-        <v>0.2343748911147219</v>
+        <v>0.23525823952216629</v>
       </c>
       <c r="K2">
-        <v>6.178127487171072E-3</v>
+        <v>0.003725696625059375</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.2032017840304118E-2</v>
+        <v>0.052228124171817561</v>
       </c>
       <c r="N2">
-        <v>1.6932368035751037E-2</v>
+        <v>0.016996185368177347</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>6.2143403694252177E-4</v>
+        <v>0.00065568980406775768</v>
       </c>
       <c r="Q2">
-        <v>4.8065731868859288E-4</v>
+        <v>0.00043685949197179279</v>
       </c>
       <c r="R2">
-        <v>6.9677123716103276E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0069939733656857721</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>8.8263440384111477E-2</v>
+        <v>0.089014037341256777</v>
       </c>
       <c r="C3">
-        <v>2.8179217619136339E-3</v>
+        <v>0.0028327330678371838</v>
       </c>
       <c r="D3">
-        <v>0.12255206607055497</v>
+        <v>0.12319621317451911</v>
       </c>
       <c r="E3">
-        <v>8.9394414153531696E-3</v>
+        <v>0.0089864281001426662</v>
       </c>
       <c r="F3">
-        <v>2.6900451809774916E-2</v>
+        <v>0.027041843535628003</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -687,54 +760,57 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5598731259137949</v>
+        <v>0.56097087401859891</v>
       </c>
       <c r="J3">
-        <v>9.6301838351008376E-2</v>
+        <v>0.096808011378270789</v>
       </c>
       <c r="K3">
-        <v>9.2042520986496453E-3</v>
+        <v>0.0055588133214081225</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5.9865686843953922E-2</v>
+        <v>0.060180347461630881</v>
       </c>
       <c r="N3">
-        <v>1.6670157757145233E-2</v>
+        <v>0.016757777935133136</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>7.1433700159036532E-4</v>
+        <v>0.00075483060794013612</v>
       </c>
       <c r="Q3">
-        <v>4.2827958251172407E-4</v>
+        <v>0.0003898311592956859</v>
       </c>
       <c r="R3">
-        <v>7.4690010096376278E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.007508258898338528</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9.5287438272993782E-2</v>
+        <v>0.096105978410299969</v>
       </c>
       <c r="C4">
-        <v>2.5434322278413018E-3</v>
+        <v>0.0025570192433912644</v>
       </c>
       <c r="D4">
-        <v>0.1154708949988751</v>
+        <v>0.11608774054669201</v>
       </c>
       <c r="E4">
-        <v>9.7726810599756964E-3</v>
+        <v>0.0098248867244605954</v>
       </c>
       <c r="F4">
-        <v>3.1601634040896359E-2</v>
+        <v>0.031770449977258829</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -743,54 +819,57 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6095917336643093</v>
+        <v>0.61083915199090877</v>
       </c>
       <c r="J4">
-        <v>4.363583023651358E-2</v>
+        <v>0.043868932851739144</v>
       </c>
       <c r="K4">
-        <v>9.0725149215348019E-3</v>
+        <v>0.005479720164337014</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5.9615535336234364E-2</v>
+        <v>0.059934001539802183</v>
       </c>
       <c r="N4">
-        <v>1.553961581292968E-2</v>
+        <v>0.01562262844419993</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>6.7114124664696196E-4</v>
+        <v>0.00070924681004764969</v>
       </c>
       <c r="Q4">
-        <v>3.7620800673437602E-4</v>
+        <v>0.00034246352155672353</v>
       </c>
       <c r="R4">
-        <v>6.8213401745146097E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0068577797753060863</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>9.1756517114560787E-2</v>
+        <v>0.092454250260145407</v>
       </c>
       <c r="C5">
-        <v>1.7365967378778189E-3</v>
+        <v>0.0017441667988781172</v>
       </c>
       <c r="D5">
-        <v>0.10684336666692139</v>
+        <v>0.10730911141093971</v>
       </c>
       <c r="E5">
-        <v>1.0713486432351168E-2</v>
+        <v>0.010760187974539891</v>
       </c>
       <c r="F5">
-        <v>5.1182742407965803E-2</v>
+        <v>0.051405854932445108</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -799,54 +878,57 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.66058954418115745</v>
+        <v>0.66129417867488927</v>
       </c>
       <c r="J5">
-        <v>1.1108883206032259E-2</v>
+        <v>0.011157308336450034</v>
       </c>
       <c r="K5">
-        <v>6.2023408613692379E-3</v>
+        <v>0.0037424975735168924</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.5212093447173404E-2</v>
+        <v>0.045409179102052902</v>
       </c>
       <c r="N5">
-        <v>9.4433982378554285E-3</v>
+        <v>0.0094845632931336108</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>5.3702381212209925E-4</v>
+        <v>0.00056695972861125045</v>
       </c>
       <c r="Q5">
-        <v>2.3844864651348271E-4</v>
+        <v>0.00021684846557128878</v>
       </c>
       <c r="R5">
-        <v>4.4355582480997083E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0044548934488265772</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>7.9713082848292233E-2</v>
+        <v>0.080280798915737722</v>
       </c>
       <c r="C6">
-        <v>1.4330728065518248E-3</v>
+        <v>0.0014386309816186462</v>
       </c>
       <c r="D6">
-        <v>8.4488738168766647E-2</v>
+        <v>0.084816427868668803</v>
       </c>
       <c r="E6">
-        <v>1.1199782240325801E-2</v>
+        <v>0.011243220612833773</v>
       </c>
       <c r="F6">
-        <v>7.1896651146980878E-2</v>
+        <v>0.072175502418155429</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -855,54 +937,57 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.69539153922957353</v>
+        <v>0.69580016280478263</v>
       </c>
       <c r="J6">
-        <v>5.7761367918317376E-3</v>
+        <v>0.0057985395471921849</v>
       </c>
       <c r="K6">
-        <v>4.6019546562011794E-3</v>
+        <v>0.0027754943781574926</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.6160433844838344E-2</v>
+        <v>0.03630068214267982</v>
       </c>
       <c r="N6">
-        <v>5.8589985020059765E-3</v>
+        <v>0.0058817226366357665</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>2.4419956388441769E-4</v>
+        <v>0.00025768887656802097</v>
       </c>
       <c r="Q6">
-        <v>1.7734380374179957E-4</v>
+        <v>0.00016120170477719538</v>
       </c>
       <c r="R6">
-        <v>3.0580663970055195E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0030699271121923635</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7">
-        <v>6.7253411155698606E-2</v>
+        <v>0.067669646531733976</v>
       </c>
       <c r="C7">
-        <v>5.7863736106888563E-4</v>
+        <v>0.00058034351508367025</v>
       </c>
       <c r="D7">
-        <v>5.809569063464963E-2</v>
+        <v>0.058266989970791563</v>
       </c>
       <c r="E7">
-        <v>1.170222505602906E-2</v>
+        <v>0.011736729911063636</v>
       </c>
       <c r="F7">
-        <v>0.11096195447465579</v>
+        <v>0.11128913380466877</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -911,22 +996,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.72739077718590006</v>
+        <v>0.72714399942705377</v>
       </c>
       <c r="J7">
-        <v>1.1239602370112481E-3</v>
+        <v>0.0011272743148773772</v>
       </c>
       <c r="K7">
-        <v>1.9153446624747194E-3</v>
+        <v>0.0011540974017064788</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.7193818265629542E-2</v>
+        <v>0.017244515479527361</v>
       </c>
       <c r="N7">
-        <v>2.5360880986783027E-3</v>
+        <v>0.0025435659374466344</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -935,30 +1020,33 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8.5107857982037993E-5</v>
+        <v>7.7289550598706505e-05</v>
       </c>
       <c r="R7">
-        <v>1.1629850102219822E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0011664141554480348</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
       <c r="B8">
-        <v>5.3929007797550818E-2</v>
+        <v>0.054236937196232383</v>
       </c>
       <c r="C8">
-        <v>1.7033429176696452E-4</v>
+        <v>0.00017075518073896804</v>
       </c>
       <c r="D8">
-        <v>4.1518131044865604E-2</v>
+        <v>0.041620720625118131</v>
       </c>
       <c r="E8">
-        <v>1.18935167730075E-2</v>
+        <v>0.011922905159786069</v>
       </c>
       <c r="F8">
-        <v>0.14280719567999819</v>
+        <v>0.14316006633898784</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -967,22 +1055,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.74197615175252507</v>
+        <v>0.74137120948612123</v>
       </c>
       <c r="J8">
-        <v>1.3150727049635277E-4</v>
+        <v>0.00013183221950876817</v>
       </c>
       <c r="K8">
-        <v>5.1464200237591191E-4</v>
+        <v>0.00030995160619685062</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.9870608844036291E-3</v>
+        <v>0.0060018546635940565</v>
       </c>
       <c r="N8">
-        <v>7.9529589593393827E-4</v>
+        <v>0.00079726103911565316</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -991,30 +1079,33 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.4086821208677452E-5</v>
+        <v>1.2786664199984058e-05</v>
       </c>
       <c r="R8">
-        <v>2.6306978586730444E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00026371982039993027</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>45</v>
       </c>
       <c r="B9">
-        <v>3.3242976412738948E-2</v>
+        <v>0.033429658380383032</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.1168619157900498E-2</v>
+        <v>0.021218937824400104</v>
       </c>
       <c r="E9">
-        <v>1.1955650000754879E-2</v>
+        <v>0.011984069065819395</v>
       </c>
       <c r="F9">
-        <v>0.17964657220773519</v>
+        <v>0.1800735993977125</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1023,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.75351287490926955</v>
+        <v>0.75282799020431213</v>
       </c>
       <c r="J9">
-        <v>9.0038145856967015E-6</v>
+        <v>9.0252170182305371e-06</v>
       </c>
       <c r="K9">
-        <v>2.1709072341432119E-5</v>
+        <v>1.3073420778431023e-05</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.4008612768205479E-4</v>
+        <v>0.00034089452620405191</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1050,27 +1141,30 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1.0250829699170914E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00010275196337217983</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
       </c>
       <c r="B10">
-        <v>2.0073044886322281E-2</v>
+        <v>0.020186443312238022</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.2944034505505192E-2</v>
+        <v>0.012975236612578673</v>
       </c>
       <c r="E10">
-        <v>1.2141731555582434E-2</v>
+        <v>0.012170999679666459</v>
       </c>
       <c r="F10">
-        <v>0.20270824766078444</v>
+        <v>0.20319688390827639</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1079,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.75210310613450371</v>
+        <v>0.75144461489386616</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.0209353094297727E-5</v>
+        <v>6.1483801483136409e-06</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.9625904207698935E-5</v>
+        <v>1.9673213225937554e-05</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1106,6 +1200,9 @@
         <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>0</v>
       </c>
     </row>
@@ -1116,105 +1213,110 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CA3AD1-44C2-4342-A070-6C9EF9955C38}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="18" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="16.140625" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="19.28515625" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="17.140625" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="19.28515625" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="16.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6.0854384124294121E-3</v>
+        <v>0.0061446120449359818</v>
       </c>
       <c r="C2">
-        <v>2.03061726349037E-4</v>
+        <v>0.00020429403006684465</v>
       </c>
       <c r="D2">
-        <v>2.2023274547215602E-2</v>
+        <v>0.022115723139095</v>
       </c>
       <c r="E2">
-        <v>1.0255830932353865E-3</v>
+        <v>0.0010304334607397969</v>
       </c>
       <c r="F2">
-        <v>8.3302052743043069E-3</v>
+        <v>0.0083626624109671178</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1223,54 +1325,57 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.2654665694891058E-2</v>
+        <v>0.052550041010566907</v>
       </c>
       <c r="J2">
-        <v>0.11228507448389466</v>
+        <v>0.11271708764979033</v>
       </c>
       <c r="K2">
-        <v>5.6339607663276337E-4</v>
+        <v>0.00031911852683613973</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.7873504517861772E-3</v>
+        <v>0.0048155741359754319</v>
       </c>
       <c r="N2">
-        <v>3.2283518853831496E-3</v>
+        <v>0.0032421194160427509</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>2.8891284009774262E-4</v>
+        <v>0.00027715213528658388</v>
       </c>
       <c r="Q2">
-        <v>4.6898734430133737E-5</v>
+        <v>4.1192149823333625e-05</v>
       </c>
       <c r="R2">
-        <v>1.0714781846085442E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0010763327624900888</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>8.8524209316939162E-3</v>
+        <v>0.0088984500947311886</v>
       </c>
       <c r="C3">
-        <v>5.5416065245914091E-4</v>
+        <v>0.00055661930443957842</v>
       </c>
       <c r="D3">
-        <v>3.3987479616525512E-2</v>
+        <v>0.034152121094528004</v>
       </c>
       <c r="E3">
-        <v>9.5609334241487009E-4</v>
+        <v>0.00095846742579185019</v>
       </c>
       <c r="F3">
-        <v>2.1465242817737092E-2</v>
+        <v>0.021576998603628824</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1279,54 +1384,57 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.8811032714784708E-2</v>
+        <v>0.048383007482454429</v>
       </c>
       <c r="J3">
-        <v>3.9008751422410136E-2</v>
+        <v>0.039206254237175948</v>
       </c>
       <c r="K3">
-        <v>2.6170880608307068E-3</v>
+        <v>0.0015697944776231329</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.2668045467365984E-2</v>
+        <v>0.012725665529169537</v>
       </c>
       <c r="N3">
-        <v>4.4865863742205182E-3</v>
+        <v>0.004508205960651269</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.5683845986274485E-4</v>
+        <v>8.2981274309991724e-05</v>
       </c>
       <c r="Q3">
-        <v>1.3154169593135483E-4</v>
+        <v>0.0001192601028962492</v>
       </c>
       <c r="R3">
-        <v>2.0393836793288068E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0020492362444012218</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4.4079630298698973E-3</v>
+        <v>0.0044006022868399658</v>
       </c>
       <c r="C4">
-        <v>1.5391509782393262E-4</v>
+        <v>0.00015387860126824294</v>
       </c>
       <c r="D4">
-        <v>3.6014999045295953E-2</v>
+        <v>0.036199847414352108</v>
       </c>
       <c r="E4">
-        <v>7.8327552523534735E-4</v>
+        <v>0.00078497160914327269</v>
       </c>
       <c r="F4">
-        <v>1.6302779230136398E-3</v>
+        <v>0.00162645829212916</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1335,54 +1443,57 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.7084795877457882E-2</v>
+        <v>0.026165261673851664</v>
       </c>
       <c r="J4">
-        <v>8.497893378592164E-3</v>
+        <v>0.0085387227423266987</v>
       </c>
       <c r="K4">
-        <v>9.2272181881775952E-4</v>
+        <v>0.00052806008886368519</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.676127108047177E-3</v>
+        <v>0.0026632276772567253</v>
       </c>
       <c r="N4">
-        <v>1.5175312650972436E-3</v>
+        <v>0.0015223923824436562</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.8995409501206833E-4</v>
+        <v>0.00014830960455322631</v>
       </c>
       <c r="Q4">
-        <v>2.9627595365873751E-5</v>
+        <v>2.5388715977411664e-05</v>
       </c>
       <c r="R4">
-        <v>4.6730123102439719E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00046776442756778957</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4.5668406785444324E-3</v>
+        <v>0.0045970494810755845</v>
       </c>
       <c r="C5">
-        <v>4.436437291757716E-4</v>
+        <v>0.0004455705403409172</v>
       </c>
       <c r="D5">
-        <v>2.0798768914459604E-2</v>
+        <v>0.020888860946725152</v>
       </c>
       <c r="E5">
-        <v>1.0523905286749257E-3</v>
+        <v>0.0010568642488985487</v>
       </c>
       <c r="F5">
-        <v>1.6443486514894828E-2</v>
+        <v>0.016514999693369437</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1391,54 +1502,57 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.8538962792641076E-2</v>
+        <v>0.048134541858203893</v>
       </c>
       <c r="J5">
-        <v>2.5520288486608131E-3</v>
+        <v>0.0025631030382921118</v>
       </c>
       <c r="K5">
-        <v>1.088596957443091E-3</v>
+        <v>0.0006458495456607014</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>7.7556596722893993E-3</v>
+        <v>0.0077891926631274101</v>
       </c>
       <c r="N5">
-        <v>6.8678432351284375E-4</v>
+        <v>0.00068964262616176694</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.4845374855898826E-4</v>
+        <v>0.00011355249923218347</v>
       </c>
       <c r="Q5">
-        <v>4.0665997843380784E-5</v>
+        <v>3.65529689319711e-05</v>
       </c>
       <c r="R5">
-        <v>8.4807760215003885E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00085175028428099303</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.2567529737204958E-2</v>
+        <v>0.012662807329576009</v>
       </c>
       <c r="C6">
-        <v>1.1380323161611884E-3</v>
+        <v>0.0011424692520974691</v>
       </c>
       <c r="D6">
-        <v>1.8735108498394423E-2</v>
+        <v>0.018812644177641447</v>
       </c>
       <c r="E6">
-        <v>1.0471437536660785E-3</v>
+        <v>0.0010527357568223498</v>
       </c>
       <c r="F6">
-        <v>4.8488105066337661E-2</v>
+        <v>0.048677529445933128</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1447,54 +1561,57 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.7632013639611233E-2</v>
+        <v>0.047285943396597675</v>
       </c>
       <c r="J6">
-        <v>7.3085470611360401E-3</v>
+        <v>0.0073369516464817418</v>
       </c>
       <c r="K6">
-        <v>3.5258331228958874E-3</v>
+        <v>0.0021244103890854737</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.4281521895849967E-2</v>
+        <v>0.024376386413360592</v>
       </c>
       <c r="N6">
-        <v>3.2795987926104906E-3</v>
+        <v>0.0032924525651364966</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.4932676024025438E-4</v>
+        <v>0.00014914565873252677</v>
       </c>
       <c r="Q6">
-        <v>3.3800210097645087E-5</v>
+        <v>3.0449636618032544e-05</v>
       </c>
       <c r="R6">
-        <v>2.4862407313451353E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.002495931717797275</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7">
-        <v>1.6313339045567433E-3</v>
+        <v>0.0015637936952164393</v>
       </c>
       <c r="C7">
-        <v>2.765393325942855E-5</v>
+        <v>2.7420648778363008e-05</v>
       </c>
       <c r="D7">
-        <v>1.102171382077682E-2</v>
+        <v>0.011046291971129307</v>
       </c>
       <c r="E7">
-        <v>8.2979112546681161E-4</v>
+        <v>0.0008279599719796005</v>
       </c>
       <c r="F7">
-        <v>2.3895743913142009E-3</v>
+        <v>0.0022594768217439692</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1503,22 +1620,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.5551085334641232E-2</v>
+        <v>0.012735745572553268</v>
       </c>
       <c r="J7">
-        <v>1.002582755334319E-4</v>
+        <v>0.00010022758684499938</v>
       </c>
       <c r="K7">
-        <v>1.0104146687145279E-4</v>
+        <v>4.7808126145100252e-05</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4.0929596616772824E-4</v>
+        <v>0.00039138311591326881</v>
       </c>
       <c r="N7">
-        <v>3.9322038916370988E-5</v>
+        <v>3.4954139005227357e-05</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1527,30 +1644,33 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3.7503707853534392E-6</v>
+        <v>2.7054453964837866e-06</v>
       </c>
       <c r="R7">
-        <v>6.3430885460600777E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>6.3064206919721122e-05</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
       <c r="B8">
-        <v>2.2191814466303371E-3</v>
+        <v>0.0021982557564012542</v>
       </c>
       <c r="C8">
-        <v>4.2330919110245834E-5</v>
+        <v>4.2419088051495499e-05</v>
       </c>
       <c r="D8">
-        <v>1.2527150507768722E-2</v>
+        <v>0.012554806498478181</v>
       </c>
       <c r="E8">
-        <v>9.5366824485095566E-4</v>
+        <v>0.00095246337810223763</v>
       </c>
       <c r="F8">
-        <v>1.0797938089490413E-2</v>
+        <v>0.010779261660231933</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1559,22 +1679,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.3998121747070432E-2</v>
+        <v>0.032763182401291148</v>
       </c>
       <c r="J8">
-        <v>9.8677994649125857E-5</v>
+        <v>9.8917623690355399e-05</v>
       </c>
       <c r="K8">
-        <v>1.6096998566692458E-4</v>
+        <v>9.64067150472657e-05</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.5135767352856199E-3</v>
+        <v>0.0015167490651427718</v>
       </c>
       <c r="N8">
-        <v>2.5997814127629693E-4</v>
+        <v>0.00026056222555851055</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1583,30 +1703,33 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.8190353332233043E-5</v>
+        <v>2.5584094910670592e-05</v>
       </c>
       <c r="R8">
-        <v>9.3734850346650212E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9.3948769791314692e-05</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>45</v>
       </c>
       <c r="B9">
-        <v>3.3655534399250511E-3</v>
+        <v>0.0033745750654160292</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.4989565239554053E-3</v>
+        <v>0.0055097011875182254</v>
       </c>
       <c r="E9">
-        <v>8.845308428185282E-4</v>
+        <v>0.00088200865128146017</v>
       </c>
       <c r="F9">
-        <v>8.9765025241268434E-3</v>
+        <v>0.008894623270965827</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1615,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.4884511144939093E-2</v>
+        <v>0.023018746637775197</v>
       </c>
       <c r="J9">
-        <v>6.5138348049137553E-6</v>
+        <v>6.5289631918399683e-06</v>
       </c>
       <c r="K9">
-        <v>4.8315652616327985E-6</v>
+        <v>2.8775984782240694e-06</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.8026281944652588E-4</v>
+        <v>0.00068187497861135315</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1642,27 +1765,30 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>2.0516726322287302E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00020565349217938549</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
       </c>
       <c r="B10">
-        <v>1.8715828853326263E-3</v>
+        <v>0.001875837285512341</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.8302195079080296E-3</v>
+        <v>0.0028353951556734608</v>
       </c>
       <c r="E10">
-        <v>9.8300279107332422E-4</v>
+        <v>0.00098119309348813411</v>
       </c>
       <c r="F10">
-        <v>9.5255871993857547E-3</v>
+        <v>0.0094278297542336291</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1671,19 +1797,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.35997853645207E-2</v>
+        <v>0.021653675649477382</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.0433009624408887E-5</v>
+        <v>1.2302169307474016e-05</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3.9257565520056565E-5</v>
+        <v>3.9351924593722361e-05</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1698,6 +1824,9 @@
         <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>0</v>
       </c>
     </row>
